--- a/Data/GGEE_23_PreSurvey.xlsx
+++ b/Data/GGEE_23_PreSurvey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0009158A-4699-2B4D-BC4A-231457C434EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C51228-401A-6E4E-8554-51ED1FEC3680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="43500" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="43500" windowHeight="24700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4355" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="571">
   <si>
     <t>Finished</t>
   </si>
@@ -1758,6 +1758,12 @@
   </si>
   <si>
     <t>Enjoy_AI</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1767,8 +1773,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1801,7 +1815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1811,6 +1825,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2589,18 +2604,6 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>21.132075471698116</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>74.339622641509422</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6415094339622645</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8867924528301887</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12937,7 +12940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
@@ -27177,10 +27180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD468F2-E2E3-564A-B597-3523D5AA168F}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27195,45 +27198,83 @@
     <col min="266" max="266" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>550</v>
       </c>
       <c r="B1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>552</v>
       </c>
       <c r="B4" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B6">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -27241,7 +27282,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -27249,7 +27290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>168</v>
       </c>
@@ -27257,7 +27298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>549</v>
       </c>
@@ -27265,10 +27306,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <f>SUM(B17:B20)</f>
-        <v>265</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -27278,10 +27321,7 @@
       <c r="B17">
         <v>56</v>
       </c>
-      <c r="C17" s="6">
-        <f>(B17/265)*100</f>
-        <v>21.132075471698116</v>
-      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -27290,10 +27330,7 @@
       <c r="B18">
         <v>197</v>
       </c>
-      <c r="C18" s="6">
-        <f>(B18/265)*100</f>
-        <v>74.339622641509422</v>
-      </c>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -27302,10 +27339,7 @@
       <c r="B19">
         <v>7</v>
       </c>
-      <c r="C19" s="6">
-        <f>(B19/265)*100</f>
-        <v>2.6415094339622645</v>
-      </c>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -27314,9 +27348,14 @@
       <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20" s="6">
-        <f>(B20/265)*100</f>
-        <v>1.8867924528301887</v>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/GGEE_23_PreSurvey.xlsx
+++ b/Data/GGEE_23_PreSurvey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496F90AE-31AD-D045-ACEE-6D630FBBD3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD5BE2-E885-1C49-801D-8445EE2B308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="500" windowWidth="43500" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13150,7 +13150,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Data/GGEE_23_PreSurvey.xlsx
+++ b/Data/GGEE_23_PreSurvey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD5BE2-E885-1C49-801D-8445EE2B308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF95D6C-9A11-FF4A-AD24-E4F62AE5ACE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="500" windowWidth="43500" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1891,7 +1891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1905,8 +1905,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -11963,7 +11961,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23250BD1-2F38-044B-81DF-1D32EDD53BBE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23250BD1-2F38-044B-81DF-1D32EDD53BBE}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -12501,7 +12499,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{342FE2AE-43D5-794F-AD18-26614DC85CA5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{342FE2AE-43D5-794F-AD18-26614DC85CA5}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -12586,7 +12584,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87FE977F-F0C5-FB46-8597-0F09CEDB441B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87FE977F-F0C5-FB46-8597-0F09CEDB441B}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -12663,7 +12661,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{881F7143-1837-1B4F-8852-12F44353AEE0}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{881F7143-1837-1B4F-8852-12F44353AEE0}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -13148,9 +13146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13167,7 +13165,7 @@
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
     <col min="11" max="11" width="46.83203125" customWidth="1"/>
     <col min="12" max="12" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" customWidth="1"/>
+    <col min="13" max="13" width="255.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="58.1640625" customWidth="1"/>
     <col min="15" max="15" width="74.6640625" customWidth="1"/>
     <col min="16" max="16" width="85.6640625" customWidth="1"/>
@@ -15348,214 +15346,214 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="12">
+      <c r="A42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
         <v>45083.414143229165</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="11" t="s">
+      <c r="F42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="11" t="s">
+      <c r="J42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="N42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="11" t="s">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="12">
+      <c r="A43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2">
         <v>45083.418813761571</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="11" t="s">
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="11" t="s">
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="N43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="11" t="s">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="12">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2">
         <v>45083.471768854164</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="11" t="s">
+      <c r="F44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="11" t="s">
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N44" s="11" t="s">
+      <c r="N44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="11" t="s">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="12">
+      <c r="A45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2">
         <v>45084.616266412035</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="11" t="s">
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="N45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O45" s="11" t="s">
+      <c r="O45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Q45" s="11" t="s">
+      <c r="Q45" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -20383,161 +20381,161 @@
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B137" s="12">
+      <c r="A137" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="2">
         <v>45097.407067395834</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F137" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G137" s="11" t="s">
+      <c r="F137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H137" s="11" t="s">
+      <c r="H137" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I137" s="11" t="s">
+      <c r="I137" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J137" s="11" t="s">
+      <c r="J137" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K137" s="11" t="s">
+      <c r="K137" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L137" s="11" t="s">
+      <c r="L137" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M137" s="11" t="s">
+      <c r="M137" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N137" s="11" t="s">
+      <c r="N137" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O137" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P137" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q137" s="11" t="s">
+      <c r="O137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q137" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="12">
+      <c r="A138" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="2">
         <v>45097.407795023151</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F138" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G138" s="11" t="s">
+      <c r="F138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H138" s="11" t="s">
+      <c r="H138" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I138" s="11" t="s">
+      <c r="I138" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J138" s="11" t="s">
+      <c r="J138" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K138" s="11" t="s">
+      <c r="K138" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L138" s="11" t="s">
+      <c r="L138" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M138" s="11" t="s">
+      <c r="M138" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N138" s="11" t="s">
+      <c r="N138" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O138" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P138" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q138" s="11" t="s">
+      <c r="O138" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P138" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q138" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A139" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="12">
+      <c r="A139" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="2">
         <v>45098.399239606479</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E139" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F139" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G139" s="11" t="s">
+      <c r="F139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H139" s="11" t="s">
+      <c r="H139" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I139" s="11" t="s">
+      <c r="I139" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J139" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K139" s="11" t="s">
+      <c r="J139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K139" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L139" s="11" t="s">
+      <c r="L139" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M139" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N139" s="11" t="s">
+      <c r="M139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N139" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O139" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P139" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q139" s="11" t="s">
+      <c r="O139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q139" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -22450,161 +22448,161 @@
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A176" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B176" s="12">
+      <c r="A176" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" s="2">
         <v>45118.437235069447</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D176" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="E176" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F176" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G176" s="11" t="s">
+      <c r="F176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G176" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H176" s="11" t="s">
+      <c r="H176" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I176" s="11" t="s">
+      <c r="I176" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J176" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K176" s="11" t="s">
+      <c r="J176" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K176" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L176" s="11" t="s">
+      <c r="L176" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M176" s="11" t="s">
+      <c r="M176" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="N176" s="11" t="s">
+      <c r="N176" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O176" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P176" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q176" s="11" t="s">
+      <c r="O176" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P176" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q176" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A177" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B177" s="12">
+      <c r="A177" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="2">
         <v>45118.437255231482</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D177" s="11" t="s">
+      <c r="D177" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E177" s="11" t="s">
+      <c r="E177" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F177" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G177" s="11" t="s">
+      <c r="F177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G177" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H177" s="11" t="s">
+      <c r="H177" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I177" s="11" t="s">
+      <c r="I177" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J177" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K177" s="11" t="s">
+      <c r="J177" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K177" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L177" s="11" t="s">
+      <c r="L177" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M177" s="11" t="s">
+      <c r="M177" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="N177" s="11" t="s">
+      <c r="N177" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O177" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P177" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q177" s="11" t="s">
+      <c r="O177" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P177" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q177" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A178" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" s="12">
+      <c r="A178" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="2">
         <v>45118.437633055553</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D178" s="11" t="s">
+      <c r="D178" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E178" s="11" t="s">
+      <c r="E178" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F178" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G178" s="11" t="s">
+      <c r="F178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G178" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H178" s="11" t="s">
+      <c r="H178" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I178" s="11" t="s">
+      <c r="I178" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J178" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K178" s="11" t="s">
+      <c r="J178" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K178" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L178" s="11" t="s">
+      <c r="L178" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M178" s="11" t="s">
+      <c r="M178" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="N178" s="11" t="s">
+      <c r="N178" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O178" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P178" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q178" s="11" t="s">
+      <c r="O178" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P178" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q178" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -24676,55 +24674,55 @@
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A218" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B218" s="12">
+      <c r="A218" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" s="2">
         <v>45125.375954872688</v>
       </c>
-      <c r="C218" s="11" t="s">
+      <c r="C218" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="D218" s="11" t="s">
+      <c r="D218" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E218" s="11" t="s">
+      <c r="E218" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F218" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G218" s="11" t="s">
+      <c r="F218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G218" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H218" s="11" t="s">
+      <c r="H218" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I218" s="11" t="s">
+      <c r="I218" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J218" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K218" s="11" t="s">
+      <c r="J218" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K218" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L218" s="11" t="s">
+      <c r="L218" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M218" s="11" t="s">
+      <c r="M218" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="N218" s="11" t="s">
+      <c r="N218" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O218" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P218" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q218" s="11" t="s">
+      <c r="O218" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P218" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q218" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -24782,55 +24780,55 @@
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A220" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B220" s="12">
+      <c r="A220" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="2">
         <v>45125.377435486109</v>
       </c>
-      <c r="C220" s="11" t="s">
+      <c r="C220" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D220" s="11" t="s">
+      <c r="D220" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E220" s="11" t="s">
+      <c r="E220" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F220" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G220" s="11" t="s">
+      <c r="F220" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G220" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H220" s="11" t="s">
+      <c r="H220" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I220" s="11" t="s">
+      <c r="I220" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J220" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K220" s="11" t="s">
+      <c r="J220" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K220" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L220" s="11" t="s">
+      <c r="L220" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M220" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N220" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O220" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P220" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q220" s="11" t="s">
+      <c r="M220" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N220" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O220" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P220" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q220" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -25386,108 +25384,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="15" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="24">
+      <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22">
         <v>45082.482218807869</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="25" t="s">
+      <c r="J2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="24" t="s">
         <v>4</v>
       </c>
       <c r="S2" t="s">
@@ -25495,1274 +25493,1274 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17">
         <v>45083.34630114583</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17">
         <v>45086.637487245367</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="20" t="s">
+      <c r="J4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="21" t="s">
+      <c r="O4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
         <v>45097.32580515046</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="20" t="s">
+      <c r="J5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17">
         <v>45097.326542476854</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="20" t="s">
+      <c r="J6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="19">
+      <c r="A7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17">
         <v>45097.330143032406</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="20" t="s">
+      <c r="M7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="21" t="s">
+      <c r="P7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="17">
         <v>45097.331391018517</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="20" t="s">
+      <c r="J8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="20" t="s">
+      <c r="M8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="20" t="s">
+      <c r="P8" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17">
         <v>45098.322577141204</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="20" t="s">
+      <c r="M9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="21" t="s">
+      <c r="P9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17">
         <v>45098.323626412035</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="19">
+      <c r="A11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17">
         <v>45098.32394234954</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="19">
+      <c r="A12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17">
         <v>45098.325032916669</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="20" t="s">
+      <c r="J12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="20" t="s">
+      <c r="M12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="21" t="s">
+      <c r="P12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="19">
+      <c r="A13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17">
         <v>45098.329096412039</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="20" t="s">
+      <c r="J13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P13" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="19">
+      <c r="A14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="17">
         <v>45098.398803530094</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="20" t="s">
+      <c r="F14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="20" t="s">
+      <c r="J14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="20" t="s">
+      <c r="M14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="21" t="s">
+      <c r="O14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="19">
+      <c r="A15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17">
         <v>45098.399045740742</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="20" t="s">
+      <c r="F15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="20" t="s">
+      <c r="J15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="20" t="s">
+      <c r="M15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="21" t="s">
+      <c r="O15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="A16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="17">
         <v>45098.399297349541</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="20" t="s">
+      <c r="F16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="20" t="s">
+      <c r="J16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="21" t="s">
+      <c r="O16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="19">
+      <c r="A17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="17">
         <v>45098.39981451389</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="F17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="20" t="s">
+      <c r="J17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="21" t="s">
+      <c r="O17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="19">
+      <c r="A18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="17">
         <v>45098.400085543981</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="F18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="20" t="s">
+      <c r="J18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="20" t="s">
+      <c r="M18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="21" t="s">
+      <c r="O18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="19">
+      <c r="A19" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="17">
         <v>45098.538305682872</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="20" t="s">
+      <c r="F19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="20" t="s">
+      <c r="J19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="21" t="s">
+      <c r="M19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="19">
+      <c r="A20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="17">
         <v>45099.323397025466</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="20" t="s">
+      <c r="M20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="20" t="s">
+      <c r="O20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="21" t="s">
+      <c r="P20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="19">
+      <c r="A21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="17">
         <v>45099.323688634257</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="20" t="s">
+      <c r="J21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="N21" s="20" t="s">
+      <c r="N21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="20" t="s">
+      <c r="O21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="19">
+      <c r="A22" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="17">
         <v>45099.324205092591</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="20" t="s">
+      <c r="J22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P22" s="20" t="s">
+      <c r="P22" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="19">
+      <c r="A23" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="17">
         <v>45099.32663541667</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="20" t="s">
+      <c r="J23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M23" s="20" t="s">
+      <c r="M23" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="P23" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="Q23" s="21" t="s">
+      <c r="Q23" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="19">
+      <c r="A24" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="17">
         <v>45099.328527280093</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="20" t="s">
+      <c r="J24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="20" t="s">
+      <c r="M24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P24" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="21" t="s">
+      <c r="P24" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="17">
         <v>45103.44832570602</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="20" t="s">
+      <c r="F25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="20" t="s">
+      <c r="J25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="21" t="s">
+      <c r="M25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="24">
+      <c r="A26" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="22">
         <v>45103.453803229168</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="25" t="s">
+      <c r="F26" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="25" t="s">
+      <c r="J26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="25" t="s">
+      <c r="L26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="N26" s="25" t="s">
+      <c r="N26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O26" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="26" t="s">
+      <c r="O26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -26820,638 +26818,638 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="19">
+      <c r="A28" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="17">
         <v>45119.386844953704</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="20" t="s">
+      <c r="F28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" s="20" t="s">
+      <c r="J28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L28" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M28" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="N28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O28" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P28" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="21" t="s">
+      <c r="O28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="19">
+      <c r="A29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="17">
         <v>45119.43958002315</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="20" t="s">
+      <c r="F29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="20" t="s">
+      <c r="J29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="20" t="s">
+      <c r="M29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="21" t="s">
+      <c r="O29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="19">
+      <c r="A30" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="17">
         <v>45120.385822777775</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="20" t="s">
+      <c r="F30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="20" t="s">
+      <c r="J30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M30" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="N30" s="20" t="s">
+      <c r="N30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P30" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="21" t="s">
+      <c r="O30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="19">
+      <c r="A31" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="17">
         <v>45120.419459351855</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="20" t="s">
+      <c r="F31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="20" t="s">
+      <c r="J31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M31" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N31" s="20" t="s">
+      <c r="M31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P31" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="21" t="s">
+      <c r="O31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="19">
+      <c r="A32" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="17">
         <v>45124.390276990744</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="20" t="s">
+      <c r="F32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="20" t="s">
+      <c r="J32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="L32" s="20" t="s">
+      <c r="L32" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="20" t="s">
+      <c r="M32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O32" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="21" t="s">
+      <c r="O32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="19">
+      <c r="A33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="17">
         <v>45125.387288611113</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="20" t="s">
+      <c r="F33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="20" t="s">
+      <c r="J33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="20" t="s">
+      <c r="M33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="21" t="s">
+      <c r="O33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="19">
+      <c r="A34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="17">
         <v>45126.372819074073</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="20" t="s">
+      <c r="F34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K34" s="20" t="s">
+      <c r="J34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="N34" s="20" t="s">
+      <c r="N34" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P34" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q34" s="21" t="s">
+      <c r="O34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="19">
+      <c r="A35" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="17">
         <v>45126.393041921299</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="20" t="s">
+      <c r="F35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="20" t="s">
+      <c r="J35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M35" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="21" t="s">
+      <c r="M35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="17">
         <v>45131.557793020831</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="20" t="s">
+      <c r="F36" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="20" t="s">
+      <c r="J36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N36" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P36" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="21" t="s">
+      <c r="M36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="17">
         <v>45132.376655532411</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="20" t="s">
+      <c r="F37" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="20" t="s">
+      <c r="J37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="L37" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P37" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q37" s="21" t="s">
+      <c r="M37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="17">
         <v>45133.615758217595</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="20" t="s">
+      <c r="F38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="K38" s="20" t="s">
+      <c r="J38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L38" s="20" t="s">
+      <c r="L38" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M38" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N38" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O38" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P38" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="21" t="s">
+      <c r="M38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="27">
         <v>45131.421629884258</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="F39" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="27" t="s">
+      <c r="F39" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I39" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="27" t="s">
+      <c r="J39" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="27" t="s">
+      <c r="L39" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P39" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q39" s="30" t="s">
+      <c r="M39" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N39" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="P39" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -30000,55 +29998,55 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="14">
+      <c r="A35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="12">
         <v>45082.482218807869</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="F35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="13" t="s">
+      <c r="J35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="13" t="s">
+      <c r="M35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="N35" s="13" t="s">
+      <c r="N35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="13" t="s">
+      <c r="O35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -30477,214 +30475,214 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="12">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2">
         <v>45083.414143229165</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="11" t="s">
+      <c r="F44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="I44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="11" t="s">
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N44" s="11" t="s">
+      <c r="N44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="11" t="s">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="12">
+      <c r="A45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2">
         <v>45083.418813761571</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="11" t="s">
+      <c r="F45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="11" t="s">
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N45" s="11" t="s">
+      <c r="N45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="11" t="s">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="12">
+      <c r="A46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2">
         <v>45083.471768854164</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="11" t="s">
+      <c r="F46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="I46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="11" t="s">
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="L46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M46" s="11" t="s">
+      <c r="M46" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N46" s="11" t="s">
+      <c r="N46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="11" t="s">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="12">
+      <c r="A47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2">
         <v>45084.616266412035</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="11" t="s">
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M47" s="11" t="s">
+      <c r="M47" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="N47" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="O47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="P47" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -35777,108 +35775,108 @@
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A144" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B144" s="12">
+      <c r="A144" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="2">
         <v>45097.407067395834</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F144" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G144" s="11" t="s">
+      <c r="F144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H144" s="11" t="s">
+      <c r="H144" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I144" s="11" t="s">
+      <c r="I144" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J144" s="11" t="s">
+      <c r="J144" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K144" s="11" t="s">
+      <c r="K144" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L144" s="11" t="s">
+      <c r="L144" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M144" s="11" t="s">
+      <c r="M144" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N144" s="11" t="s">
+      <c r="N144" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O144" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P144" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q144" s="11" t="s">
+      <c r="O144" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P144" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q144" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A145" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="12">
+      <c r="A145" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="2">
         <v>45097.407795023151</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C145" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="D145" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F145" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G145" s="11" t="s">
+      <c r="F145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H145" s="11" t="s">
+      <c r="H145" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I145" s="11" t="s">
+      <c r="I145" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J145" s="11" t="s">
+      <c r="J145" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K145" s="11" t="s">
+      <c r="K145" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L145" s="11" t="s">
+      <c r="L145" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M145" s="11" t="s">
+      <c r="M145" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N145" s="11" t="s">
+      <c r="N145" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O145" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P145" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q145" s="11" t="s">
+      <c r="O145" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P145" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q145" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -36254,55 +36252,55 @@
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A153" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B153" s="12">
+      <c r="A153" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="2">
         <v>45098.399239606479</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E153" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F153" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G153" s="11" t="s">
+      <c r="F153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H153" s="11" t="s">
+      <c r="H153" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I153" s="11" t="s">
+      <c r="I153" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J153" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K153" s="11" t="s">
+      <c r="J153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K153" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L153" s="11" t="s">
+      <c r="L153" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M153" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N153" s="11" t="s">
+      <c r="M153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N153" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O153" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P153" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q153" s="11" t="s">
+      <c r="O153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q153" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -37102,55 +37100,55 @@
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A169" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B169" s="14">
+      <c r="A169" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="12">
         <v>45103.453803229168</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="D169" s="13" t="s">
+      <c r="D169" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E169" s="13" t="s">
+      <c r="E169" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="F169" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G169" s="13" t="s">
+      <c r="F169" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H169" s="13" t="s">
+      <c r="H169" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I169" s="13" t="s">
+      <c r="I169" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J169" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="K169" s="13" t="s">
+      <c r="J169" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K169" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L169" s="13" t="s">
+      <c r="L169" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M169" s="13" t="s">
+      <c r="M169" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="N169" s="13" t="s">
+      <c r="N169" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O169" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="P169" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q169" s="13" t="s">
+      <c r="O169" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P169" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q169" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -38851,161 +38849,161 @@
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A202" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B202" s="12">
+      <c r="A202" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202" s="2">
         <v>45118.437235069447</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C202" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D202" s="11" t="s">
+      <c r="D202" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E202" s="11" t="s">
+      <c r="E202" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F202" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G202" s="11" t="s">
+      <c r="F202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G202" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H202" s="11" t="s">
+      <c r="H202" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I202" s="11" t="s">
+      <c r="I202" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J202" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K202" s="11" t="s">
+      <c r="J202" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K202" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L202" s="11" t="s">
+      <c r="L202" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M202" s="11" t="s">
+      <c r="M202" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="N202" s="11" t="s">
+      <c r="N202" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O202" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P202" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q202" s="11" t="s">
+      <c r="O202" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P202" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q202" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A203" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B203" s="12">
+      <c r="A203" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B203" s="2">
         <v>45118.437255231482</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D203" s="11" t="s">
+      <c r="D203" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E203" s="11" t="s">
+      <c r="E203" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F203" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G203" s="11" t="s">
+      <c r="F203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G203" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H203" s="11" t="s">
+      <c r="H203" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I203" s="11" t="s">
+      <c r="I203" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J203" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K203" s="11" t="s">
+      <c r="J203" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K203" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L203" s="11" t="s">
+      <c r="L203" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M203" s="11" t="s">
+      <c r="M203" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="N203" s="11" t="s">
+      <c r="N203" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O203" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P203" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q203" s="11" t="s">
+      <c r="O203" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P203" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q203" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A204" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B204" s="12">
+      <c r="A204" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204" s="2">
         <v>45118.437633055553</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C204" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D204" s="11" t="s">
+      <c r="D204" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E204" s="11" t="s">
+      <c r="E204" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F204" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G204" s="11" t="s">
+      <c r="F204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G204" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H204" s="11" t="s">
+      <c r="H204" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I204" s="11" t="s">
+      <c r="I204" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J204" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K204" s="11" t="s">
+      <c r="J204" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K204" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L204" s="11" t="s">
+      <c r="L204" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M204" s="11" t="s">
+      <c r="M204" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="N204" s="11" t="s">
+      <c r="N204" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O204" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P204" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q204" s="11" t="s">
+      <c r="O204" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P204" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q204" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -41342,55 +41340,55 @@
       </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A249" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B249" s="12">
+      <c r="A249" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249" s="2">
         <v>45125.375954872688</v>
       </c>
-      <c r="C249" s="11" t="s">
+      <c r="C249" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="D249" s="11" t="s">
+      <c r="D249" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E249" s="11" t="s">
+      <c r="E249" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F249" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G249" s="11" t="s">
+      <c r="F249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G249" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H249" s="11" t="s">
+      <c r="H249" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I249" s="11" t="s">
+      <c r="I249" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J249" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K249" s="11" t="s">
+      <c r="J249" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K249" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L249" s="11" t="s">
+      <c r="L249" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M249" s="11" t="s">
+      <c r="M249" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="N249" s="11" t="s">
+      <c r="N249" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O249" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P249" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q249" s="11" t="s">
+      <c r="O249" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P249" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q249" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -41448,55 +41446,55 @@
       </c>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A251" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B251" s="12">
+      <c r="A251" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="2">
         <v>45125.377435486109</v>
       </c>
-      <c r="C251" s="11" t="s">
+      <c r="C251" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D251" s="11" t="s">
+      <c r="D251" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E251" s="11" t="s">
+      <c r="E251" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F251" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G251" s="11" t="s">
+      <c r="F251" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G251" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H251" s="11" t="s">
+      <c r="H251" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I251" s="11" t="s">
+      <c r="I251" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J251" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K251" s="11" t="s">
+      <c r="J251" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K251" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L251" s="11" t="s">
+      <c r="L251" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M251" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N251" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O251" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P251" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q251" s="11" t="s">
+      <c r="M251" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N251" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O251" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P251" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q251" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Data/GGEE_23_PreSurvey.xlsx
+++ b/Data/GGEE_23_PreSurvey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD52F51E-3E56-EC41-8E7F-A0F4BE2E85DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68556DF7-5E85-1A48-B7F2-6CD535C00C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="740" windowWidth="29400" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean 092723" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13042" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13042" uniqueCount="579">
   <si>
     <t>Finished</t>
   </si>
@@ -1788,6 +1788,12 @@
   </si>
   <si>
     <t>No Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>ExperienceType</t>
+  </si>
+  <si>
+    <t>ResponseID</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1941,15 +1947,171 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="77">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2109,166 +2271,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -13052,117 +13054,117 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E383D4D3-C9EE-AE47-9475-F5D009CC5C9D}" name="Table134" displayName="Table134" ref="A1:Q205" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E383D4D3-C9EE-AE47-9475-F5D009CC5C9D}" name="Table134" displayName="Table134" ref="A1:Q205" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="A1:Q205" xr:uid="{4E71100E-65D0-BA4E-AB39-740EFED37173}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q205">
     <sortCondition ref="B1:B205"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{45F8380D-69A3-2240-8164-467D2BC7C24C}" name="Finished" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{C5248427-DBF0-5B40-B6AE-BE5B3FD49DEA}" name="Date" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{F1536018-9572-444B-B47A-43DB88792132}" name="Response_ID" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{E0EF0E1D-A6FA-4149-9504-3E6F157C0B17}" name="District" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{71901551-4FD4-E64E-AA1C-8CF6899B2C4E}" name="Camp" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{19AD1ED8-2101-324A-A413-8D9F4BFE41CE}" name="Program" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{78CBD5DC-2174-4648-A951-6BDB1A3DE944}" name="Age" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{054A8261-EB0B-D646-A6F6-8014F0C691A6}" name="Grade" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{C0A4E566-D1B6-ED43-8252-D298DC14FBEF}" name="Gender" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{94391A4F-6AD8-6046-ADCB-519F059E5FF4}" name="Self_Describe" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{EFC80162-5FBD-FF46-9BA3-3CD50ABCD57F}" name="Race" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{825B7759-D596-B14E-8A1E-07853691C7F6}" name="Experience" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{20003037-6BB9-964F-8313-0663389AA490}" name="Experience_Type" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{042D73B4-1271-D34C-9345-BBEC16429460}" name="Enjoy_Code" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{B374B08C-FEE7-FA4D-B44A-C863628E5B59}" name="AI_Experience" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{616F1D94-75AE-6F40-91CA-4FF8531E6D1B}" name="AI_Example" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{8E65A427-8314-2148-8BEC-81C45FE7D692}" name="Enjoy_AI" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{45F8380D-69A3-2240-8164-467D2BC7C24C}" name="Finished" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{C5248427-DBF0-5B40-B6AE-BE5B3FD49DEA}" name="Date" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{F1536018-9572-444B-B47A-43DB88792132}" name="ResponseID" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{E0EF0E1D-A6FA-4149-9504-3E6F157C0B17}" name="District" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{71901551-4FD4-E64E-AA1C-8CF6899B2C4E}" name="Camp" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{19AD1ED8-2101-324A-A413-8D9F4BFE41CE}" name="Program" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{78CBD5DC-2174-4648-A951-6BDB1A3DE944}" name="Age" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{054A8261-EB0B-D646-A6F6-8014F0C691A6}" name="Grade" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{C0A4E566-D1B6-ED43-8252-D298DC14FBEF}" name="Gender" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{94391A4F-6AD8-6046-ADCB-519F059E5FF4}" name="Self_Describe" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{EFC80162-5FBD-FF46-9BA3-3CD50ABCD57F}" name="Race" dataDxfId="64"/>
+    <tableColumn id="12" xr3:uid="{825B7759-D596-B14E-8A1E-07853691C7F6}" name="Experience" dataDxfId="63"/>
+    <tableColumn id="13" xr3:uid="{20003037-6BB9-964F-8313-0663389AA490}" name="ExperienceType" dataDxfId="62"/>
+    <tableColumn id="14" xr3:uid="{042D73B4-1271-D34C-9345-BBEC16429460}" name="Enjoy_Code" dataDxfId="61"/>
+    <tableColumn id="15" xr3:uid="{B374B08C-FEE7-FA4D-B44A-C863628E5B59}" name="AI_Experience" dataDxfId="60"/>
+    <tableColumn id="16" xr3:uid="{616F1D94-75AE-6F40-91CA-4FF8531E6D1B}" name="AI_Example" dataDxfId="59"/>
+    <tableColumn id="17" xr3:uid="{8E65A427-8314-2148-8BEC-81C45FE7D692}" name="Enjoy_AI" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9AB40E2E-3482-9C44-ACB9-16B364135D72}" name="Table4" displayName="Table4" ref="A1:R1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9AB40E2E-3482-9C44-ACB9-16B364135D72}" name="Table4" displayName="Table4" ref="A1:R1048576" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A1:R1048576" xr:uid="{9AB40E2E-3482-9C44-ACB9-16B364135D72}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1048576">
     <sortCondition ref="R1:R1048576"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{E5F9C53F-1F3F-994A-8315-E925841A825C}" name="Finished" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{752DC400-63FB-0D4A-B1F8-66C946A96232}" name="Date" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{118B6F8B-9ED8-144D-AB0C-78024D53ECAE}" name="Response_ID" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{851F874A-2673-0C40-978C-789C528FD3BD}" name="District" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{287E193F-5CFF-B84F-8B34-E11FA3CD17EB}" name="Camp" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{36F37C6A-9B5C-AE4F-892A-A2FE2D702A19}" name="Program" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{A4439820-5412-F54C-BFF7-34DF20F23B02}" name="Age" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{54B02B3E-D4BF-A348-B8B0-4CB3BEE2CDF1}" name="Grade" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{B07435E7-5F70-B44C-94C7-60B0C05B9FCC}" name="Gender" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{8725546C-A62F-2048-ABEF-8F818B09C2F2}" name="Self_Describe" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{B4BC5832-B861-FB48-B483-6AC6BF0A200A}" name="Race" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{3E64FF25-D605-FE4F-9267-A7D147616E36}" name="Experience" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{E794DAC4-1C63-CF4E-A190-19FDB779D5FE}" name="Experience_Type" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{45FFB67F-5544-674A-908F-5746124A51EC}" name="Enjoy_Code" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{409008AB-8C66-4B4F-AE70-9FDF654F79B4}" name="AI_Experience" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{F389CD5F-F587-6546-B61E-145DA93AA6BD}" name="AI_Example" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{2556007A-71C8-4C47-AAD1-6E37D484F922}" name="Enjoy_AI" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{C6496387-2CEA-0843-9368-5512C0503C5B}" name="Why Removed" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E5F9C53F-1F3F-994A-8315-E925841A825C}" name="Finished" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{752DC400-63FB-0D4A-B1F8-66C946A96232}" name="Date" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{118B6F8B-9ED8-144D-AB0C-78024D53ECAE}" name="Response_ID" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{851F874A-2673-0C40-978C-789C528FD3BD}" name="District" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{287E193F-5CFF-B84F-8B34-E11FA3CD17EB}" name="Camp" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{36F37C6A-9B5C-AE4F-892A-A2FE2D702A19}" name="Program" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{A4439820-5412-F54C-BFF7-34DF20F23B02}" name="Age" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{54B02B3E-D4BF-A348-B8B0-4CB3BEE2CDF1}" name="Grade" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{B07435E7-5F70-B44C-94C7-60B0C05B9FCC}" name="Gender" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{8725546C-A62F-2048-ABEF-8F818B09C2F2}" name="Self_Describe" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{B4BC5832-B861-FB48-B483-6AC6BF0A200A}" name="Race" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{3E64FF25-D605-FE4F-9267-A7D147616E36}" name="Experience" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{E794DAC4-1C63-CF4E-A190-19FDB779D5FE}" name="Experience_Type" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{45FFB67F-5544-674A-908F-5746124A51EC}" name="Enjoy_Code" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{409008AB-8C66-4B4F-AE70-9FDF654F79B4}" name="AI_Experience" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{F389CD5F-F587-6546-B61E-145DA93AA6BD}" name="AI_Example" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{2556007A-71C8-4C47-AAD1-6E37D484F922}" name="Enjoy_AI" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{C6496387-2CEA-0843-9368-5512C0503C5B}" name="Why Removed" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E71100E-65D0-BA4E-AB39-740EFED37173}" name="Table1" displayName="Table1" ref="A1:Q230" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E71100E-65D0-BA4E-AB39-740EFED37173}" name="Table1" displayName="Table1" ref="A1:Q230" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:Q230" xr:uid="{4E71100E-65D0-BA4E-AB39-740EFED37173}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q230">
     <sortCondition ref="B1:B230"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{78F134CB-FDA2-3843-90E5-5175769ED020}" name="Finished" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{90EC691C-8F55-4542-A958-AB2C06D47943}" name="Date" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{FAC083B5-0284-324A-9279-4D14A926FEC0}" name="Response_ID" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{BA808457-78A2-2548-BF6F-A2807B6AAEAA}" name="District" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{0AD3C747-4765-1E43-923D-6C9A9F45A47B}" name="Camp" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{1FDAB82C-CC50-4447-82C6-CE2E25F0DCD5}" name="Program" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{EB15E475-F40D-974B-A8C5-F0DA5F6C235D}" name="Age" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{60161127-CFB5-0A4F-8BEF-4AA6D6963A7F}" name="Grade" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{D5A02114-036A-EC42-9F7F-688D314959E1}" name="Gender" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{99E97C0B-A71C-DE40-9ACF-2F024875141D}" name="Self_Describe" dataDxfId="65"/>
-    <tableColumn id="11" xr3:uid="{D8DA4E21-09F3-5B44-AF1D-C72478964C39}" name="Race" dataDxfId="64"/>
-    <tableColumn id="12" xr3:uid="{DA6CD430-A679-044A-A847-F19EA36DBC78}" name="Experience" dataDxfId="63"/>
-    <tableColumn id="13" xr3:uid="{626F5B29-5AA3-A248-BD24-34FD9FE5881F}" name="Experience_Type" dataDxfId="62"/>
-    <tableColumn id="14" xr3:uid="{4C2D8AF4-EB29-2749-9C89-4944CE98442C}" name="Enjoy_Code" dataDxfId="61"/>
-    <tableColumn id="15" xr3:uid="{07B38BB7-7EDE-7141-ABEA-253B3BA821A1}" name="AI_Experience" dataDxfId="60"/>
-    <tableColumn id="16" xr3:uid="{23CE8CF0-F189-4A45-9100-F4C0B502B091}" name="AI_Example" dataDxfId="59"/>
-    <tableColumn id="17" xr3:uid="{0B447412-D245-1B41-B092-C7F6D11BF278}" name="Enjoy_AI" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{78F134CB-FDA2-3843-90E5-5175769ED020}" name="Finished" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{90EC691C-8F55-4542-A958-AB2C06D47943}" name="Date" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{FAC083B5-0284-324A-9279-4D14A926FEC0}" name="Response_ID" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{BA808457-78A2-2548-BF6F-A2807B6AAEAA}" name="District" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{0AD3C747-4765-1E43-923D-6C9A9F45A47B}" name="Camp" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{1FDAB82C-CC50-4447-82C6-CE2E25F0DCD5}" name="Program" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{EB15E475-F40D-974B-A8C5-F0DA5F6C235D}" name="Age" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{60161127-CFB5-0A4F-8BEF-4AA6D6963A7F}" name="Grade" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{D5A02114-036A-EC42-9F7F-688D314959E1}" name="Gender" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{99E97C0B-A71C-DE40-9ACF-2F024875141D}" name="Self_Describe" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{D8DA4E21-09F3-5B44-AF1D-C72478964C39}" name="Race" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{DA6CD430-A679-044A-A847-F19EA36DBC78}" name="Experience" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{626F5B29-5AA3-A248-BD24-34FD9FE5881F}" name="Experience_Type" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{4C2D8AF4-EB29-2749-9C89-4944CE98442C}" name="Enjoy_Code" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{07B38BB7-7EDE-7141-ABEA-253B3BA821A1}" name="AI_Experience" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{23CE8CF0-F189-4A45-9100-F4C0B502B091}" name="AI_Example" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{0B447412-D245-1B41-B092-C7F6D11BF278}" name="Enjoy_AI" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EAF24674-900D-CA4F-899F-6199714BF92B}" name="Table13" displayName="Table13" ref="A1:Q268" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EAF24674-900D-CA4F-899F-6199714BF92B}" name="Table13" displayName="Table13" ref="A1:Q268" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:Q268" xr:uid="{4E71100E-65D0-BA4E-AB39-740EFED37173}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q268">
     <sortCondition ref="B1:B268"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{09657774-2684-E24E-83FE-559CE6F1D1DC}" name="Finished" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{A4506056-62D3-024D-BA77-7B27DBE33CCC}" name="Date" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{DC3E7AA2-0A09-434F-8AF4-DD99BF4462DB}" name="Response_ID" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{14C717C3-F92B-BA48-8FA1-BCC196A31469}" name="District" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{0052FB48-4C58-4443-B934-E02936615C23}" name="Camp" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{3FE91DF0-EC0F-F945-8F53-7175C7BE5052}" name="Program" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{F7F940FB-094D-7446-AA77-D963E3F6F1DC}" name="Age" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{E659AE46-3DD3-AD46-9667-DDB5755BDC4D}" name="Grade" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{238E1A9E-E499-7742-B4EF-6A155067ECFC}" name="Gender" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{24607504-26AD-794E-8295-9F093B219141}" name="Self_Describe" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{4450EDD4-280E-F146-A5CD-C5D39F3450C9}" name="Race" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{4CB7A96B-15B8-0A41-8296-737DF87B471F}" name="Experience" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{C2BB29C0-FC65-8445-AA4C-8D206F3535A7}" name="Experience_Type" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{1AEDAC2F-E464-064C-84A8-2C391053EA5A}" name="Enjoy_Code" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{C9037B45-063B-7F40-B054-558C4CE1E656}" name="AI_Experience" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{58483BBC-82DA-994F-A7A4-C851CAF2C3DA}" name="AI_Example" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{048E9DF1-8310-4A41-83F9-B6D8AFEFB812}" name="Enjoy_AI" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{09657774-2684-E24E-83FE-559CE6F1D1DC}" name="Finished" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A4506056-62D3-024D-BA77-7B27DBE33CCC}" name="Date" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{DC3E7AA2-0A09-434F-8AF4-DD99BF4462DB}" name="Response_ID" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{14C717C3-F92B-BA48-8FA1-BCC196A31469}" name="District" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{0052FB48-4C58-4443-B934-E02936615C23}" name="Camp" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{3FE91DF0-EC0F-F945-8F53-7175C7BE5052}" name="Program" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{F7F940FB-094D-7446-AA77-D963E3F6F1DC}" name="Age" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{E659AE46-3DD3-AD46-9667-DDB5755BDC4D}" name="Grade" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{238E1A9E-E499-7742-B4EF-6A155067ECFC}" name="Gender" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{24607504-26AD-794E-8295-9F093B219141}" name="Self_Describe" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{4450EDD4-280E-F146-A5CD-C5D39F3450C9}" name="Race" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{4CB7A96B-15B8-0A41-8296-737DF87B471F}" name="Experience" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{C2BB29C0-FC65-8445-AA4C-8D206F3535A7}" name="Experience_Type" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{1AEDAC2F-E464-064C-84A8-2C391053EA5A}" name="Enjoy_Code" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C9037B45-063B-7F40-B054-558C4CE1E656}" name="AI_Experience" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{58483BBC-82DA-994F-A7A4-C851CAF2C3DA}" name="AI_Example" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{048E9DF1-8310-4A41-83F9-B6D8AFEFB812}" name="Enjoy_AI" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13469,7 +13471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13501,7 +13503,7 @@
         <v>554</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>556</v>
@@ -13531,7 +13533,7 @@
         <v>563</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>565</v>
@@ -24376,3103 +24378,3098 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="29"/>
-    <col min="2" max="2" width="11.33203125" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="29" customWidth="1"/>
-    <col min="4" max="9" width="10.83203125" style="29"/>
-    <col min="10" max="10" width="14" style="29" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="29"/>
-    <col min="12" max="12" width="12.1640625" style="29" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="29" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="29" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="29" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="29"/>
-    <col min="18" max="18" width="14.6640625" style="29" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="29"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" t="s">
         <v>554</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s">
         <v>555</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" t="s">
         <v>556</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" t="s">
         <v>557</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" t="s">
         <v>558</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" t="s">
         <v>548</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" t="s">
         <v>559</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" t="s">
         <v>560</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" t="s">
         <v>561</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" t="s">
         <v>562</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" t="s">
         <v>563</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" t="s">
         <v>564</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" t="s">
         <v>565</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" t="s">
         <v>566</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" t="s">
         <v>567</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" t="s">
         <v>568</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="7" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="31">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
         <v>45082.482218807869</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="29" t="s">
+      <c r="O2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>45083.34630114583</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="30" t="s">
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
         <v>45083.414143229165</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="30" t="s">
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="29" t="s">
+      <c r="O4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="31">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
         <v>45083.418813761571</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="30" t="s">
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="30" t="s">
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="29" t="s">
+      <c r="O5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="31">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
         <v>45083.471768854164</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="30" t="s">
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="29" t="s">
+      <c r="O6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="31">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
         <v>45084.616266412035</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="30" t="s">
+      <c r="J7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="30" t="s">
+      <c r="M7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="N7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R7" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="31">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
         <v>45086.637487245367</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="30" t="s">
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="30" t="s">
+      <c r="M8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="29" t="s">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="31">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
         <v>45097.32580515046</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="30" t="s">
+      <c r="I9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="N9" s="30" t="s">
+      <c r="N9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="R9" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="31">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
         <v>45097.326542476854</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="30" t="s">
+      <c r="I10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="N10" s="30" t="s">
+      <c r="N10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="O10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="Q10" s="30" t="s">
+      <c r="Q10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="29" t="s">
+      <c r="R10" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="31">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
         <v>45097.330143032406</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="30" t="s">
+      <c r="I11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="30" t="s">
+      <c r="M11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="O11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="30" t="s">
+      <c r="P11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="29" t="s">
+      <c r="R11" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="31">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
         <v>45097.331391018517</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="30" t="s">
+      <c r="I12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="L12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="30" t="s">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="O12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="30" t="s">
+      <c r="P12" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="29" t="s">
+      <c r="R12" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="31">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
         <v>45097.407067395834</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="30" t="s">
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P13" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R13" s="29" t="s">
+      <c r="O13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="31">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
         <v>45097.407795023151</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="29" t="s">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="31">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
         <v>45098.322577141204</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="30" t="s">
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M15" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="30" t="s">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="30" t="s">
+      <c r="O15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="30" t="s">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="29" t="s">
+      <c r="R15" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="31">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
         <v>45098.323626412035</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="30" t="s">
+      <c r="I16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="30" t="s">
+      <c r="O16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="30" t="s">
+      <c r="P16" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="Q16" s="30" t="s">
+      <c r="Q16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="29" t="s">
+      <c r="R16" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="31">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2">
         <v>45098.32394234954</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="30" t="s">
+      <c r="I17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="30" t="s">
+      <c r="P17" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="Q17" s="30" t="s">
+      <c r="Q17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="31">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
         <v>45098.325032916669</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="30" t="s">
+      <c r="I18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="30" t="s">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="30" t="s">
+      <c r="O18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="30" t="s">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="R18" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="31">
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
         <v>45098.329096412039</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="30" t="s">
+      <c r="I19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="30" t="s">
+      <c r="M19" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="30" t="s">
+      <c r="O19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P19" s="30" t="s">
+      <c r="P19" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="Q19" s="30" t="s">
+      <c r="Q19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R19" s="29" t="s">
+      <c r="R19" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="31">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
         <v>45098.398803530094</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="30" t="s">
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="30" t="s">
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="30" t="s">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="29" t="s">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="31">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2">
         <v>45098.399045740742</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="30" t="s">
+      <c r="I21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="30" t="s">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="29" t="s">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="31">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
         <v>45098.399239606479</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="30" t="s">
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="30" t="s">
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M22" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="30" t="s">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="29" t="s">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="31">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
         <v>45098.399297349541</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="30" t="s">
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="30" t="s">
+      <c r="I23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="N23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="29" t="s">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="31">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
         <v>45098.39981451389</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="30" t="s">
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="30" t="s">
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="30" t="s">
+      <c r="M24" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="N24" s="30" t="s">
+      <c r="N24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O24" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="29" t="s">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="31">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
         <v>45098.400085543981</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="30" t="s">
+      <c r="J25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N25" s="30" t="s">
+      <c r="M25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P25" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R25" s="29" t="s">
+      <c r="O25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="31">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
         <v>45098.538305682872</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="30" t="s">
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="30" t="s">
+      <c r="I26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="30" t="s">
+      <c r="L26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="29" t="s">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="31">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
         <v>45099.323397025466</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="30" t="s">
+      <c r="I27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="30" t="s">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="30" t="s">
+      <c r="O27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P27" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="30" t="s">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R27" s="29" t="s">
+      <c r="R27" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="31">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
         <v>45099.323688634257</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" s="30" t="s">
+      <c r="I28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L28" s="30" t="s">
+      <c r="L28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M28" s="30" t="s">
+      <c r="M28" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="N28" s="30" t="s">
+      <c r="N28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O28" s="30" t="s">
+      <c r="O28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P28" s="30" t="s">
+      <c r="P28" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="Q28" s="30" t="s">
+      <c r="Q28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R28" s="29" t="s">
+      <c r="R28" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="31">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
         <v>45099.324205092591</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="30" t="s">
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="M29" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="N29" s="30" t="s">
+      <c r="N29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="30" t="s">
+      <c r="O29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="30" t="s">
+      <c r="P29" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="Q29" s="30" t="s">
+      <c r="Q29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R29" s="29" t="s">
+      <c r="R29" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="31">
+      <c r="A30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2">
         <v>45099.32663541667</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="30" t="s">
+      <c r="I30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="L30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="30" t="s">
+      <c r="M30" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="N30" s="30" t="s">
+      <c r="N30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="30" t="s">
+      <c r="O30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P30" s="30" t="s">
+      <c r="P30" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="Q30" s="30" t="s">
+      <c r="Q30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R30" s="29" t="s">
+      <c r="R30" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="31">
+      <c r="A31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
         <v>45099.328527280093</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="30" t="s">
+      <c r="I31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L31" s="30" t="s">
+      <c r="L31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N31" s="30" t="s">
+      <c r="M31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O31" s="30" t="s">
+      <c r="O31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P31" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="30" t="s">
+      <c r="P31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R31" s="29" t="s">
+      <c r="R31" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="31">
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2">
         <v>45103.453803229168</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F32" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="30" t="s">
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="30" t="s">
+      <c r="I32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="30" t="s">
+      <c r="L32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="30" t="s">
+      <c r="M32" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="N32" s="30" t="s">
+      <c r="N32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O32" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="29" t="s">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="31">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
         <v>45104.493352557867</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F33" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="30" t="s">
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I33" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="30" t="s">
+      <c r="I33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="30" t="s">
+      <c r="L33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M33" s="30" t="s">
+      <c r="M33" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="N33" s="30" t="s">
+      <c r="N33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="29" t="s">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="31">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
         <v>45118.36029733796</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F34" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="30" t="s">
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I34" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K34" s="30" t="s">
+      <c r="I34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L34" s="30" t="s">
+      <c r="L34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M34" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N34" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O34" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P34" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q34" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R34" s="29" t="s">
+      <c r="M34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="31">
+      <c r="A35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
         <v>45118.437235069447</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F35" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="30" t="s">
+      <c r="F35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="30" t="s">
+      <c r="I35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M35" s="30" t="s">
+      <c r="M35" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="N35" s="30" t="s">
+      <c r="N35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O35" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="29" t="s">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="31">
+      <c r="A36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2">
         <v>45118.437255231482</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F36" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="30" t="s">
+      <c r="F36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="30" t="s">
+      <c r="I36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L36" s="30" t="s">
+      <c r="L36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M36" s="30" t="s">
+      <c r="M36" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="N36" s="30" t="s">
+      <c r="N36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O36" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P36" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R36" s="29" t="s">
+      <c r="O36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="31">
+      <c r="A37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2">
         <v>45118.437633055553</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F37" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="30" t="s">
+      <c r="F37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="30" t="s">
+      <c r="I37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="30" t="s">
+      <c r="M37" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="N37" s="30" t="s">
+      <c r="N37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O37" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P37" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q37" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R37" s="29" t="s">
+      <c r="O37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="31">
+      <c r="A38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2">
         <v>45118.556879618052</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F38" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="30" t="s">
+      <c r="F38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K38" s="30" t="s">
+      <c r="I38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L38" s="30" t="s">
+      <c r="L38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M38" s="30" t="s">
+      <c r="M38" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="N38" s="30" t="s">
+      <c r="N38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O38" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P38" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R38" s="29" t="s">
+      <c r="O38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="31">
+      <c r="A39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
         <v>45119.386844953704</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F39" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="30" t="s">
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="H39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="30" t="s">
+      <c r="I39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L39" s="30" t="s">
+      <c r="L39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M39" s="30" t="s">
+      <c r="M39" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="N39" s="30" t="s">
+      <c r="N39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O39" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P39" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q39" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R39" s="29" t="s">
+      <c r="O39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="31">
+      <c r="A40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
         <v>45119.43958002315</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F40" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="30" t="s">
+      <c r="F40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J40" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="30" t="s">
+      <c r="I40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L40" s="30" t="s">
+      <c r="L40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M40" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N40" s="30" t="s">
+      <c r="M40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O40" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P40" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R40" s="29" t="s">
+      <c r="O40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="31">
+      <c r="A41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2">
         <v>45120.385822777775</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F41" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="30" t="s">
+      <c r="F41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="30" t="s">
+      <c r="I41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L41" s="30" t="s">
+      <c r="L41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M41" s="30" t="s">
+      <c r="M41" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="N41" s="30" t="s">
+      <c r="N41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O41" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="29" t="s">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="31">
+      <c r="A42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
         <v>45120.419459351855</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F42" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="30" t="s">
+      <c r="F42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I42" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J42" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="30" t="s">
+      <c r="I42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L42" s="30" t="s">
+      <c r="L42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M42" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="30" t="s">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="29" t="s">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="31">
+      <c r="A43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2">
         <v>45124.390276990744</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F43" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="30" t="s">
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="30" t="s">
+      <c r="I43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L43" s="30" t="s">
+      <c r="L43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M43" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="30" t="s">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O43" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="29" t="s">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="31">
+      <c r="A44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2">
         <v>45125.375954872688</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F44" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="30" t="s">
+      <c r="F44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I44" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="30" t="s">
+      <c r="I44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L44" s="30" t="s">
+      <c r="L44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M44" s="30" t="s">
+      <c r="M44" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="N44" s="30" t="s">
+      <c r="N44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O44" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="29" t="s">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="31">
+      <c r="A45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2">
         <v>45125.376910347222</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="F45" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="30" t="s">
+      <c r="F45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J45" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="30" t="s">
+      <c r="I45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L45" s="30" t="s">
+      <c r="L45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M45" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="29" t="s">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="31">
+      <c r="A46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2">
         <v>45125.377435486109</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F46" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="30" t="s">
+      <c r="F46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="30" t="s">
+      <c r="H46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="30" t="s">
+      <c r="I46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L46" s="30" t="s">
+      <c r="L46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M46" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P46" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="29" t="s">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="31">
+      <c r="A47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2">
         <v>45125.387288611113</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F47" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="30" t="s">
+      <c r="F47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="30" t="s">
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L47" s="30" t="s">
+      <c r="L47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M47" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="30" t="s">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O47" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="29" t="s">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="31">
+      <c r="A48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2">
         <v>45126.372819074073</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E48" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F48" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="30" t="s">
+      <c r="F48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="H48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="30" t="s">
+      <c r="I48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L48" s="30" t="s">
+      <c r="L48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M48" s="30" t="s">
+      <c r="M48" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="N48" s="30" t="s">
+      <c r="N48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O48" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="29" t="s">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="31">
+      <c r="A49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2">
         <v>45126.393041921299</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F49" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="30" t="s">
+      <c r="F49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="30" t="s">
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L49" s="30" t="s">
+      <c r="L49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="29" t="s">
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="2">
         <v>45103.44832570602</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F50" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="30" t="s">
+      <c r="F50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="H50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K50" s="30" t="s">
+      <c r="I50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L50" s="30" t="s">
+      <c r="L50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M50" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N50" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O50" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P50" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q50" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R50" s="29" t="s">
+      <c r="M50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="2">
         <v>45105.399964710647</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F51" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="30" t="s">
+      <c r="F51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K51" s="30" t="s">
+      <c r="I51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M51" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N51" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O51" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P51" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q51" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R51" s="29" t="s">
+      <c r="M51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="2">
         <v>45131.421629884258</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F52" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="30" t="s">
+      <c r="F52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="30" t="s">
+      <c r="I52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L52" s="30" t="s">
+      <c r="L52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M52" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="29" t="s">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="2">
         <v>45131.557793020831</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="F53" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="30" t="s">
+      <c r="F53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I53" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K53" s="30" t="s">
+      <c r="I53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L53" s="30" t="s">
+      <c r="L53" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M53" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N53" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O53" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P53" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q53" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R53" s="29" t="s">
+      <c r="M53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="2">
         <v>45132.376655532411</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="F54" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="30" t="s">
+      <c r="F54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="30" t="s">
+      <c r="I54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L54" s="30" t="s">
+      <c r="L54" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M54" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P54" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="29" t="s">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="2">
         <v>45133.615758217595</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="F55" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="30" t="s">
+      <c r="F55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H55" s="30" t="s">
+      <c r="H55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I55" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K55" s="30" t="s">
+      <c r="I55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L55" s="30" t="s">
+      <c r="L55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="N55" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O55" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="P55" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q55" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="R55" s="29" t="s">
+      <c r="M55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="56" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
@@ -27528,7 +27525,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="57" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>2</v>
       </c>
@@ -27584,7 +27581,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="58" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
@@ -27640,7 +27637,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="59" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
@@ -27696,7 +27693,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="60" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
@@ -27804,7 +27801,7 @@
       <c r="Q61" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R61" s="29" t="s">
+      <c r="R61" t="s">
         <v>575</v>
       </c>
     </row>
@@ -27860,11 +27857,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="29" t="s">
+      <c r="R62" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="63" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
@@ -27920,7 +27917,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="64" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>

--- a/Data/GGEE_23_PreSurvey.xlsx
+++ b/Data/GGEE_23_PreSurvey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68556DF7-5E85-1A48-B7F2-6CD535C00C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2927C2E-F114-254C-9928-19B4367009C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="740" windowWidth="29400" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13469,9 +13469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1CB16E-4F8F-6843-A9B4-35D05754D499}">
   <dimension ref="A1:Q205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Data/GGEE_23_PreSurvey.xlsx
+++ b/Data/GGEE_23_PreSurvey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2927C2E-F114-254C-9928-19B4367009C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F5DA8-B08C-CE48-BC48-81CAB1153D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="740" windowWidth="29400" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean 092723" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13042" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13042" uniqueCount="584">
   <si>
     <t>Finished</t>
   </si>
@@ -1794,6 +1794,21 @@
   </si>
   <si>
     <t>ResponseID</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Prefer to self-describe</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1947,6 +1962,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13469,9 +13485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1CB16E-4F8F-6843-A9B4-35D05754D499}">
   <dimension ref="A1:Q205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13570,8 +13586,8 @@
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
+      <c r="H2" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
@@ -13623,8 +13639,8 @@
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
+      <c r="H3" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>16</v>
@@ -13676,8 +13692,8 @@
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>25</v>
+      <c r="H4" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>10</v>
@@ -13729,8 +13745,8 @@
       <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
+      <c r="H5" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>29</v>
@@ -13782,8 +13798,8 @@
       <c r="G6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
+      <c r="H6" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>10</v>
@@ -13835,8 +13851,8 @@
       <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
+      <c r="H7" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>10</v>
@@ -13888,8 +13904,8 @@
       <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>9</v>
+      <c r="H8" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>10</v>
@@ -13941,8 +13957,8 @@
       <c r="G9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
+      <c r="H9" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>29</v>
@@ -13994,8 +14010,8 @@
       <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
+      <c r="H10" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>10</v>
@@ -14047,8 +14063,8 @@
       <c r="G11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>9</v>
+      <c r="H11" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>10</v>
@@ -14100,8 +14116,8 @@
       <c r="G12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>25</v>
+      <c r="H12" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>10</v>
@@ -14153,8 +14169,8 @@
       <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>25</v>
+      <c r="H13" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>10</v>
@@ -14206,8 +14222,8 @@
       <c r="G14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>9</v>
+      <c r="H14" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>29</v>
@@ -14259,8 +14275,8 @@
       <c r="G15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>51</v>
+      <c r="H15" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -14312,8 +14328,8 @@
       <c r="G16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>56</v>
+      <c r="H16" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>10</v>
@@ -14365,8 +14381,8 @@
       <c r="G17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>9</v>
+      <c r="H17" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>29</v>
@@ -14418,8 +14434,8 @@
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>15</v>
+      <c r="H18" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>10</v>
@@ -14471,8 +14487,8 @@
       <c r="G19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>9</v>
+      <c r="H19" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>29</v>
@@ -14524,8 +14540,8 @@
       <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>15</v>
+      <c r="H20" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>10</v>
@@ -14577,8 +14593,8 @@
       <c r="G21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>51</v>
+      <c r="H21" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>10</v>
@@ -14630,8 +14646,8 @@
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>9</v>
+      <c r="H22" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>29</v>
@@ -14683,8 +14699,8 @@
       <c r="G23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>51</v>
+      <c r="H23" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>10</v>
@@ -14736,8 +14752,8 @@
       <c r="G24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>25</v>
+      <c r="H24" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>10</v>
@@ -14789,8 +14805,8 @@
       <c r="G25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>51</v>
+      <c r="H25" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>29</v>
@@ -14842,8 +14858,8 @@
       <c r="G26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>15</v>
+      <c r="H26" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>10</v>
@@ -14895,8 +14911,8 @@
       <c r="G27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>51</v>
+      <c r="H27" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>29</v>
@@ -14948,8 +14964,8 @@
       <c r="G28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>25</v>
+      <c r="H28" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>10</v>
@@ -15001,8 +15017,8 @@
       <c r="G29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>51</v>
+      <c r="H29" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -15054,8 +15070,8 @@
       <c r="G30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>15</v>
+      <c r="H30" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>29</v>
@@ -15107,8 +15123,8 @@
       <c r="G31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>51</v>
+      <c r="H31" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>29</v>
@@ -15160,8 +15176,8 @@
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>15</v>
+      <c r="H32" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>29</v>
@@ -15213,8 +15229,8 @@
       <c r="G33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>25</v>
+      <c r="H33" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>16</v>
@@ -15266,8 +15282,8 @@
       <c r="G34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>15</v>
+      <c r="H34" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>10</v>
@@ -15319,8 +15335,8 @@
       <c r="G35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>51</v>
+      <c r="H35" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>10</v>
@@ -15372,8 +15388,8 @@
       <c r="G36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>51</v>
+      <c r="H36" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>10</v>
@@ -15425,8 +15441,8 @@
       <c r="G37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>15</v>
+      <c r="H37" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>10</v>
@@ -15478,8 +15494,8 @@
       <c r="G38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>9</v>
+      <c r="H38" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>10</v>
@@ -15531,8 +15547,8 @@
       <c r="G39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>9</v>
+      <c r="H39" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>10</v>
@@ -15584,8 +15600,8 @@
       <c r="G40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>9</v>
+      <c r="H40" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>10</v>
@@ -15637,8 +15653,8 @@
       <c r="G41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>25</v>
+      <c r="H41" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>10</v>
@@ -15690,8 +15706,8 @@
       <c r="G42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>9</v>
+      <c r="H42" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>10</v>
@@ -15743,8 +15759,8 @@
       <c r="G43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>51</v>
+      <c r="H43" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>10</v>
@@ -15796,8 +15812,8 @@
       <c r="G44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>25</v>
+      <c r="H44" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>10</v>
@@ -15849,8 +15865,8 @@
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>9</v>
+      <c r="H45" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>10</v>
@@ -15902,8 +15918,8 @@
       <c r="G46" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>9</v>
+      <c r="H46" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>10</v>
@@ -15955,8 +15971,8 @@
       <c r="G47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>9</v>
+      <c r="H47" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>10</v>
@@ -16008,8 +16024,8 @@
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>15</v>
+      <c r="H48" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>16</v>
@@ -16061,8 +16077,8 @@
       <c r="G49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>25</v>
+      <c r="H49" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>10</v>
@@ -16114,8 +16130,8 @@
       <c r="G50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>15</v>
+      <c r="H50" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>10</v>
@@ -16167,8 +16183,8 @@
       <c r="G51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>9</v>
+      <c r="H51" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>29</v>
@@ -16220,8 +16236,8 @@
       <c r="G52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>51</v>
+      <c r="H52" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>29</v>
@@ -16273,8 +16289,8 @@
       <c r="G53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>51</v>
+      <c r="H53" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>29</v>
@@ -16326,8 +16342,8 @@
       <c r="G54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>25</v>
+      <c r="H54" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>10</v>
@@ -16379,8 +16395,8 @@
       <c r="G55" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>9</v>
+      <c r="H55" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>10</v>
@@ -16432,11 +16448,11 @@
       <c r="G56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>51</v>
+      <c r="H56" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>168</v>
+        <v>583</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>4</v>
@@ -16485,8 +16501,8 @@
       <c r="G57" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>9</v>
+      <c r="H57" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>10</v>
@@ -16538,8 +16554,8 @@
       <c r="G58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>15</v>
+      <c r="H58" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>10</v>
@@ -16591,8 +16607,8 @@
       <c r="G59" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>9</v>
+      <c r="H59" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>10</v>
@@ -16644,8 +16660,8 @@
       <c r="G60" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>15</v>
+      <c r="H60" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>29</v>
@@ -16697,8 +16713,8 @@
       <c r="G61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>51</v>
+      <c r="H61" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>29</v>
@@ -16750,8 +16766,8 @@
       <c r="G62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>51</v>
+      <c r="H62" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
@@ -16803,8 +16819,8 @@
       <c r="G63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>9</v>
+      <c r="H63" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>10</v>
@@ -16856,8 +16872,8 @@
       <c r="G64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>51</v>
+      <c r="H64" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>29</v>
@@ -16909,8 +16925,8 @@
       <c r="G65" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>15</v>
+      <c r="H65" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>10</v>
@@ -16962,8 +16978,8 @@
       <c r="G66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>15</v>
+      <c r="H66" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>10</v>
@@ -17015,8 +17031,8 @@
       <c r="G67" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>51</v>
+      <c r="H67" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>10</v>
@@ -17068,8 +17084,8 @@
       <c r="G68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>51</v>
+      <c r="H68" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>29</v>
@@ -17121,8 +17137,8 @@
       <c r="G69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>51</v>
+      <c r="H69" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>10</v>
@@ -17174,8 +17190,8 @@
       <c r="G70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>51</v>
+      <c r="H70" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>29</v>
@@ -17227,8 +17243,8 @@
       <c r="G71" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>15</v>
+      <c r="H71" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>10</v>
@@ -17280,8 +17296,8 @@
       <c r="G72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>51</v>
+      <c r="H72" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>16</v>
@@ -17333,8 +17349,8 @@
       <c r="G73" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>51</v>
+      <c r="H73" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>29</v>
@@ -17386,11 +17402,11 @@
       <c r="G74" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>51</v>
+      <c r="H74" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>168</v>
+        <v>583</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>201</v>
@@ -17439,8 +17455,8 @@
       <c r="G75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>51</v>
+      <c r="H75" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>10</v>
@@ -17492,8 +17508,8 @@
       <c r="G76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>51</v>
+      <c r="H76" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>10</v>
@@ -17545,8 +17561,8 @@
       <c r="G77" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>25</v>
+      <c r="H77" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>10</v>
@@ -17598,8 +17614,8 @@
       <c r="G78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>15</v>
+      <c r="H78" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>10</v>
@@ -17651,8 +17667,8 @@
       <c r="G79" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>15</v>
+      <c r="H79" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>10</v>
@@ -17704,8 +17720,8 @@
       <c r="G80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>15</v>
+      <c r="H80" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>10</v>
@@ -17757,8 +17773,8 @@
       <c r="G81" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>9</v>
+      <c r="H81" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>29</v>
@@ -17810,8 +17826,8 @@
       <c r="G82" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>51</v>
+      <c r="H82" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I82" s="3" t="s">
         <v>10</v>
@@ -17863,11 +17879,11 @@
       <c r="G83" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>15</v>
+      <c r="H83" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>168</v>
+        <v>583</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>10</v>
@@ -17916,8 +17932,8 @@
       <c r="G84" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>15</v>
+      <c r="H84" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>10</v>
@@ -17969,8 +17985,8 @@
       <c r="G85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>15</v>
+      <c r="H85" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>29</v>
@@ -18022,8 +18038,8 @@
       <c r="G86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>51</v>
+      <c r="H86" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I86" s="3" t="s">
         <v>10</v>
@@ -18075,8 +18091,8 @@
       <c r="G87" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>51</v>
+      <c r="H87" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>10</v>
@@ -18128,8 +18144,8 @@
       <c r="G88" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>51</v>
+      <c r="H88" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I88" s="3" t="s">
         <v>10</v>
@@ -18181,8 +18197,8 @@
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>15</v>
+      <c r="H89" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>29</v>
@@ -18234,8 +18250,8 @@
       <c r="G90" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>9</v>
+      <c r="H90" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>10</v>
@@ -18287,8 +18303,8 @@
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>15</v>
+      <c r="H91" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
@@ -18340,8 +18356,8 @@
       <c r="G92" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>51</v>
+      <c r="H92" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>10</v>
@@ -18393,11 +18409,11 @@
       <c r="G93" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>9</v>
+      <c r="H93" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>168</v>
+        <v>583</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>248</v>
@@ -18446,8 +18462,8 @@
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>15</v>
+      <c r="H94" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>10</v>
@@ -18499,8 +18515,8 @@
       <c r="G95" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>9</v>
+      <c r="H95" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>10</v>
@@ -18552,8 +18568,8 @@
       <c r="G96" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>25</v>
+      <c r="H96" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>10</v>
@@ -18605,8 +18621,8 @@
       <c r="G97" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>25</v>
+      <c r="H97" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>10</v>
@@ -18658,8 +18674,8 @@
       <c r="G98" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>25</v>
+      <c r="H98" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I98" s="3" t="s">
         <v>10</v>
@@ -18711,8 +18727,8 @@
       <c r="G99" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>25</v>
+      <c r="H99" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I99" s="3" t="s">
         <v>10</v>
@@ -18764,8 +18780,8 @@
       <c r="G100" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>25</v>
+      <c r="H100" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>10</v>
@@ -18817,8 +18833,8 @@
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>15</v>
+      <c r="H101" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>10</v>
@@ -18870,8 +18886,8 @@
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>15</v>
+      <c r="H102" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>10</v>
@@ -18923,8 +18939,8 @@
       <c r="G103" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>9</v>
+      <c r="H103" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>29</v>
@@ -18976,8 +18992,8 @@
       <c r="G104" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>51</v>
+      <c r="H104" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>10</v>
@@ -19029,8 +19045,8 @@
       <c r="G105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H105" s="3" t="s">
-        <v>25</v>
+      <c r="H105" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>29</v>
@@ -19082,8 +19098,8 @@
       <c r="G106" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>25</v>
+      <c r="H106" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>10</v>
@@ -19135,8 +19151,8 @@
       <c r="G107" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H107" s="3" t="s">
-        <v>15</v>
+      <c r="H107" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>10</v>
@@ -19188,8 +19204,8 @@
       <c r="G108" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H108" s="3" t="s">
-        <v>9</v>
+      <c r="H108" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>10</v>
@@ -19241,8 +19257,8 @@
       <c r="G109" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>15</v>
+      <c r="H109" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>10</v>
@@ -19294,8 +19310,8 @@
       <c r="G110" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H110" s="3" t="s">
-        <v>9</v>
+      <c r="H110" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>10</v>
@@ -19347,8 +19363,8 @@
       <c r="G111" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H111" s="3" t="s">
-        <v>15</v>
+      <c r="H111" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>29</v>
@@ -19400,8 +19416,8 @@
       <c r="G112" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>51</v>
+      <c r="H112" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>10</v>
@@ -19453,8 +19469,8 @@
       <c r="G113" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H113" s="3" t="s">
-        <v>15</v>
+      <c r="H113" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>10</v>
@@ -19506,8 +19522,8 @@
       <c r="G114" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>15</v>
+      <c r="H114" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>29</v>
@@ -19559,8 +19575,8 @@
       <c r="G115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H115" s="3" t="s">
-        <v>15</v>
+      <c r="H115" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>29</v>
@@ -19612,8 +19628,8 @@
       <c r="G116" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H116" s="3" t="s">
-        <v>9</v>
+      <c r="H116" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>10</v>
@@ -19665,8 +19681,8 @@
       <c r="G117" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H117" s="3" t="s">
-        <v>15</v>
+      <c r="H117" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>10</v>
@@ -19718,8 +19734,8 @@
       <c r="G118" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H118" s="3" t="s">
-        <v>51</v>
+      <c r="H118" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>29</v>
@@ -19771,8 +19787,8 @@
       <c r="G119" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H119" s="3" t="s">
-        <v>9</v>
+      <c r="H119" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>29</v>
@@ -19824,8 +19840,8 @@
       <c r="G120" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H120" s="3" t="s">
-        <v>51</v>
+      <c r="H120" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>29</v>
@@ -19877,8 +19893,8 @@
       <c r="G121" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H121" s="3" t="s">
-        <v>51</v>
+      <c r="H121" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>29</v>
@@ -19930,8 +19946,8 @@
       <c r="G122" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H122" s="3" t="s">
-        <v>51</v>
+      <c r="H122" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>10</v>
@@ -19983,8 +19999,8 @@
       <c r="G123" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H123" s="3" t="s">
-        <v>25</v>
+      <c r="H123" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>10</v>
@@ -20036,8 +20052,8 @@
       <c r="G124" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H124" s="3" t="s">
-        <v>15</v>
+      <c r="H124" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>10</v>
@@ -20089,8 +20105,8 @@
       <c r="G125" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H125" s="3" t="s">
-        <v>51</v>
+      <c r="H125" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>29</v>
@@ -20142,8 +20158,8 @@
       <c r="G126" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H126" s="3" t="s">
-        <v>56</v>
+      <c r="H126" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>10</v>
@@ -20195,8 +20211,8 @@
       <c r="G127" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H127" s="3" t="s">
-        <v>51</v>
+      <c r="H127" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>10</v>
@@ -20248,8 +20264,8 @@
       <c r="G128" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H128" s="3" t="s">
-        <v>9</v>
+      <c r="H128" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>10</v>
@@ -20301,8 +20317,8 @@
       <c r="G129" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="H129" s="3" t="s">
-        <v>56</v>
+      <c r="H129" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>10</v>
@@ -20354,8 +20370,8 @@
       <c r="G130" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H130" s="3" t="s">
-        <v>51</v>
+      <c r="H130" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>10</v>
@@ -20407,8 +20423,8 @@
       <c r="G131" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>9</v>
+      <c r="H131" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>10</v>
@@ -20460,8 +20476,8 @@
       <c r="G132" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>51</v>
+      <c r="H132" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>10</v>
@@ -20513,8 +20529,8 @@
       <c r="G133" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H133" s="3" t="s">
-        <v>9</v>
+      <c r="H133" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>29</v>
@@ -20566,8 +20582,8 @@
       <c r="G134" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>25</v>
+      <c r="H134" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>10</v>
@@ -20619,8 +20635,8 @@
       <c r="G135" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H135" s="3" t="s">
-        <v>9</v>
+      <c r="H135" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I135" s="3" t="s">
         <v>10</v>
@@ -20672,8 +20688,8 @@
       <c r="G136" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H136" s="3" t="s">
-        <v>25</v>
+      <c r="H136" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>10</v>
@@ -20725,8 +20741,8 @@
       <c r="G137" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H137" s="3" t="s">
-        <v>15</v>
+      <c r="H137" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>10</v>
@@ -20778,8 +20794,8 @@
       <c r="G138" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H138" s="3" t="s">
-        <v>51</v>
+      <c r="H138" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I138" s="3" t="s">
         <v>29</v>
@@ -20831,8 +20847,8 @@
       <c r="G139" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H139" s="3" t="s">
-        <v>25</v>
+      <c r="H139" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>10</v>
@@ -20884,8 +20900,8 @@
       <c r="G140" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H140" s="3" t="s">
-        <v>15</v>
+      <c r="H140" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>10</v>
@@ -20937,8 +20953,8 @@
       <c r="G141" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H141" s="3" t="s">
-        <v>51</v>
+      <c r="H141" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>10</v>
@@ -20990,8 +21006,8 @@
       <c r="G142" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H142" s="3" t="s">
-        <v>15</v>
+      <c r="H142" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I142" s="3" t="s">
         <v>10</v>
@@ -21043,8 +21059,8 @@
       <c r="G143" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H143" s="3" t="s">
-        <v>51</v>
+      <c r="H143" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>29</v>
@@ -21096,8 +21112,8 @@
       <c r="G144" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H144" s="3" t="s">
-        <v>9</v>
+      <c r="H144" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>10</v>
@@ -21149,8 +21165,8 @@
       <c r="G145" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H145" s="3" t="s">
-        <v>25</v>
+      <c r="H145" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>10</v>
@@ -21202,8 +21218,8 @@
       <c r="G146" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H146" s="3" t="s">
-        <v>51</v>
+      <c r="H146" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I146" s="3" t="s">
         <v>10</v>
@@ -21255,8 +21271,8 @@
       <c r="G147" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H147" s="3" t="s">
-        <v>51</v>
+      <c r="H147" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>16</v>
@@ -21308,8 +21324,8 @@
       <c r="G148" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H148" s="3" t="s">
-        <v>9</v>
+      <c r="H148" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>10</v>
@@ -21361,8 +21377,8 @@
       <c r="G149" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H149" s="3" t="s">
-        <v>15</v>
+      <c r="H149" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>10</v>
@@ -21414,8 +21430,8 @@
       <c r="G150" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H150" s="3" t="s">
-        <v>15</v>
+      <c r="H150" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>10</v>
@@ -21467,8 +21483,8 @@
       <c r="G151" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H151" s="3" t="s">
-        <v>9</v>
+      <c r="H151" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>16</v>
@@ -21520,8 +21536,8 @@
       <c r="G152" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H152" s="3" t="s">
-        <v>25</v>
+      <c r="H152" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>29</v>
@@ -21573,8 +21589,8 @@
       <c r="G153" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H153" s="3" t="s">
-        <v>15</v>
+      <c r="H153" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>10</v>
@@ -21626,8 +21642,8 @@
       <c r="G154" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H154" s="3" t="s">
-        <v>25</v>
+      <c r="H154" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I154" s="3" t="s">
         <v>29</v>
@@ -21679,8 +21695,8 @@
       <c r="G155" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H155" s="3" t="s">
-        <v>9</v>
+      <c r="H155" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I155" s="3" t="s">
         <v>10</v>
@@ -21732,8 +21748,8 @@
       <c r="G156" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H156" s="3" t="s">
-        <v>15</v>
+      <c r="H156" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>10</v>
@@ -21785,8 +21801,8 @@
       <c r="G157" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H157" s="3" t="s">
-        <v>51</v>
+      <c r="H157" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>10</v>
@@ -21838,8 +21854,8 @@
       <c r="G158" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H158" s="3" t="s">
-        <v>51</v>
+      <c r="H158" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I158" s="3" t="s">
         <v>10</v>
@@ -21891,8 +21907,8 @@
       <c r="G159" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H159" s="3" t="s">
-        <v>9</v>
+      <c r="H159" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I159" s="3" t="s">
         <v>10</v>
@@ -21944,8 +21960,8 @@
       <c r="G160" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H160" s="3" t="s">
-        <v>15</v>
+      <c r="H160" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I160" s="3" t="s">
         <v>29</v>
@@ -21997,8 +22013,8 @@
       <c r="G161" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H161" s="3" t="s">
-        <v>51</v>
+      <c r="H161" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I161" s="3" t="s">
         <v>10</v>
@@ -22050,8 +22066,8 @@
       <c r="G162" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H162" s="3" t="s">
-        <v>15</v>
+      <c r="H162" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I162" s="3" t="s">
         <v>29</v>
@@ -22103,8 +22119,8 @@
       <c r="G163" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H163" s="3" t="s">
-        <v>15</v>
+      <c r="H163" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I163" s="3" t="s">
         <v>10</v>
@@ -22156,8 +22172,8 @@
       <c r="G164" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H164" s="3" t="s">
-        <v>9</v>
+      <c r="H164" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I164" s="3" t="s">
         <v>10</v>
@@ -22209,8 +22225,8 @@
       <c r="G165" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H165" s="3" t="s">
-        <v>51</v>
+      <c r="H165" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>10</v>
@@ -22262,8 +22278,8 @@
       <c r="G166" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H166" s="3" t="s">
-        <v>51</v>
+      <c r="H166" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>10</v>
@@ -22315,8 +22331,8 @@
       <c r="G167" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H167" s="3" t="s">
-        <v>51</v>
+      <c r="H167" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I167" s="3" t="s">
         <v>10</v>
@@ -22368,8 +22384,8 @@
       <c r="G168" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H168" s="3" t="s">
-        <v>9</v>
+      <c r="H168" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I168" s="3" t="s">
         <v>10</v>
@@ -22421,8 +22437,8 @@
       <c r="G169" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H169" s="3" t="s">
-        <v>51</v>
+      <c r="H169" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I169" s="3" t="s">
         <v>10</v>
@@ -22474,8 +22490,8 @@
       <c r="G170" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H170" s="3" t="s">
-        <v>51</v>
+      <c r="H170" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I170" s="3" t="s">
         <v>10</v>
@@ -22527,8 +22543,8 @@
       <c r="G171" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H171" s="3" t="s">
-        <v>51</v>
+      <c r="H171" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I171" s="3" t="s">
         <v>10</v>
@@ -22580,8 +22596,8 @@
       <c r="G172" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H172" s="3" t="s">
-        <v>51</v>
+      <c r="H172" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I172" s="3" t="s">
         <v>10</v>
@@ -22633,8 +22649,8 @@
       <c r="G173" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H173" s="3" t="s">
-        <v>51</v>
+      <c r="H173" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>10</v>
@@ -22686,8 +22702,8 @@
       <c r="G174" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H174" s="3" t="s">
-        <v>51</v>
+      <c r="H174" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I174" s="3" t="s">
         <v>29</v>
@@ -22739,8 +22755,8 @@
       <c r="G175" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H175" s="3" t="s">
-        <v>9</v>
+      <c r="H175" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I175" s="3" t="s">
         <v>10</v>
@@ -22792,8 +22808,8 @@
       <c r="G176" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H176" s="3" t="s">
-        <v>25</v>
+      <c r="H176" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I176" s="3" t="s">
         <v>29</v>
@@ -22845,8 +22861,8 @@
       <c r="G177" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H177" s="3" t="s">
-        <v>51</v>
+      <c r="H177" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I177" s="3" t="s">
         <v>10</v>
@@ -22898,8 +22914,8 @@
       <c r="G178" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H178" s="3" t="s">
-        <v>15</v>
+      <c r="H178" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I178" s="3" t="s">
         <v>10</v>
@@ -22951,8 +22967,8 @@
       <c r="G179" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H179" s="3" t="s">
-        <v>9</v>
+      <c r="H179" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I179" s="3" t="s">
         <v>29</v>
@@ -23004,8 +23020,8 @@
       <c r="G180" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H180" s="3" t="s">
-        <v>51</v>
+      <c r="H180" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I180" s="3" t="s">
         <v>10</v>
@@ -23057,8 +23073,8 @@
       <c r="G181" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H181" s="3" t="s">
-        <v>9</v>
+      <c r="H181" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I181" s="3" t="s">
         <v>10</v>
@@ -23110,8 +23126,8 @@
       <c r="G182" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H182" s="3" t="s">
-        <v>15</v>
+      <c r="H182" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I182" s="3" t="s">
         <v>10</v>
@@ -23163,8 +23179,8 @@
       <c r="G183" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H183" s="3" t="s">
-        <v>15</v>
+      <c r="H183" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I183" s="3" t="s">
         <v>10</v>
@@ -23216,8 +23232,8 @@
       <c r="G184" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H184" s="3" t="s">
-        <v>51</v>
+      <c r="H184" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I184" s="3" t="s">
         <v>10</v>
@@ -23269,8 +23285,8 @@
       <c r="G185" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H185" s="3" t="s">
-        <v>15</v>
+      <c r="H185" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I185" s="3" t="s">
         <v>10</v>
@@ -23322,8 +23338,8 @@
       <c r="G186" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H186" s="3" t="s">
-        <v>15</v>
+      <c r="H186" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I186" s="3" t="s">
         <v>10</v>
@@ -23375,8 +23391,8 @@
       <c r="G187" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H187" s="3" t="s">
-        <v>15</v>
+      <c r="H187" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I187" s="3" t="s">
         <v>10</v>
@@ -23428,8 +23444,8 @@
       <c r="G188" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H188" s="3" t="s">
-        <v>15</v>
+      <c r="H188" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I188" s="3" t="s">
         <v>10</v>
@@ -23481,8 +23497,8 @@
       <c r="G189" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H189" s="3" t="s">
-        <v>15</v>
+      <c r="H189" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I189" s="3" t="s">
         <v>10</v>
@@ -23534,8 +23550,8 @@
       <c r="G190" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H190" s="3" t="s">
-        <v>15</v>
+      <c r="H190" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I190" s="3" t="s">
         <v>10</v>
@@ -23587,8 +23603,8 @@
       <c r="G191" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H191" s="3" t="s">
-        <v>15</v>
+      <c r="H191" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I191" s="3" t="s">
         <v>10</v>
@@ -23640,8 +23656,8 @@
       <c r="G192" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H192" s="3" t="s">
-        <v>56</v>
+      <c r="H192" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="I192" s="3" t="s">
         <v>29</v>
@@ -23693,8 +23709,8 @@
       <c r="G193" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H193" s="3" t="s">
-        <v>51</v>
+      <c r="H193" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I193" s="3" t="s">
         <v>29</v>
@@ -23746,8 +23762,8 @@
       <c r="G194" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H194" s="3" t="s">
-        <v>56</v>
+      <c r="H194" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="I194" s="3" t="s">
         <v>29</v>
@@ -23799,8 +23815,8 @@
       <c r="G195" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H195" s="3" t="s">
-        <v>15</v>
+      <c r="H195" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I195" s="3" t="s">
         <v>10</v>
@@ -23852,8 +23868,8 @@
       <c r="G196" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H196" s="3" t="s">
-        <v>25</v>
+      <c r="H196" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I196" s="3" t="s">
         <v>10</v>
@@ -23905,8 +23921,8 @@
       <c r="G197" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H197" s="3" t="s">
-        <v>25</v>
+      <c r="H197" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I197" s="3" t="s">
         <v>29</v>
@@ -23958,8 +23974,8 @@
       <c r="G198" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H198" s="3" t="s">
-        <v>15</v>
+      <c r="H198" s="29" t="s">
+        <v>580</v>
       </c>
       <c r="I198" s="3" t="s">
         <v>29</v>
@@ -24011,8 +24027,8 @@
       <c r="G199" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H199" s="3" t="s">
-        <v>25</v>
+      <c r="H199" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I199" s="3" t="s">
         <v>10</v>
@@ -24064,8 +24080,8 @@
       <c r="G200" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H200" s="3" t="s">
-        <v>9</v>
+      <c r="H200" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I200" s="3" t="s">
         <v>10</v>
@@ -24117,8 +24133,8 @@
       <c r="G201" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H201" s="3" t="s">
-        <v>9</v>
+      <c r="H201" s="29" t="s">
+        <v>579</v>
       </c>
       <c r="I201" s="3" t="s">
         <v>10</v>
@@ -24170,8 +24186,8 @@
       <c r="G202" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H202" s="3" t="s">
-        <v>25</v>
+      <c r="H202" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I202" s="3" t="s">
         <v>10</v>
@@ -24223,8 +24239,8 @@
       <c r="G203" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H203" s="3" t="s">
-        <v>25</v>
+      <c r="H203" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I203" s="3" t="s">
         <v>10</v>
@@ -24276,8 +24292,8 @@
       <c r="G204" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H204" s="3" t="s">
-        <v>51</v>
+      <c r="H204" s="29" t="s">
+        <v>581</v>
       </c>
       <c r="I204" s="3" t="s">
         <v>10</v>
@@ -24329,8 +24345,8 @@
       <c r="G205" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H205" s="3" t="s">
-        <v>25</v>
+      <c r="H205" s="29" t="s">
+        <v>582</v>
       </c>
       <c r="I205" s="3" t="s">
         <v>29</v>

--- a/Data/GGEE_23_PreSurvey.xlsx
+++ b/Data/GGEE_23_PreSurvey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F5DA8-B08C-CE48-BC48-81CAB1153D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EC8F29-0F07-914F-9388-714C068F570D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -12241,7 +12241,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23250BD1-2F38-044B-81DF-1D32EDD53BBE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23250BD1-2F38-044B-81DF-1D32EDD53BBE}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -12779,7 +12779,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{342FE2AE-43D5-794F-AD18-26614DC85CA5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{342FE2AE-43D5-794F-AD18-26614DC85CA5}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -12864,7 +12864,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87FE977F-F0C5-FB46-8597-0F09CEDB441B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{87FE977F-F0C5-FB46-8597-0F09CEDB441B}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -12941,7 +12941,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{881F7143-1837-1B4F-8852-12F44353AEE0}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{881F7143-1837-1B4F-8852-12F44353AEE0}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -13485,8 +13485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1CB16E-4F8F-6843-A9B4-35D05754D499}">
   <dimension ref="A1:Q205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>

--- a/Data/GGEE_23_PreSurvey.xlsx
+++ b/Data/GGEE_23_PreSurvey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F775490-5E51-5643-9FB9-A8861557BDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD0AAA6-C498-2648-980A-3573B1D3A211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="740" windowWidth="43020" windowHeight="21620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean 092723" sheetId="8" r:id="rId1"/>
@@ -13485,9 +13485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1CB16E-4F8F-6843-A9B4-35D05754D499}">
   <dimension ref="A1:Q205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13503,12 +13503,12 @@
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.33203125" customWidth="1"/>
     <col min="11" max="11" width="46.83203125" customWidth="1"/>
-    <col min="12" max="12" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="72.6640625" customWidth="1"/>
-    <col min="14" max="14" width="58.1640625" customWidth="1"/>
-    <col min="15" max="15" width="74.6640625" customWidth="1"/>
-    <col min="16" max="16" width="85.6640625" customWidth="1"/>
-    <col min="17" max="17" width="78.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="16" max="16" width="35.1640625" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
